--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value444.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value444.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.681208158166903</v>
+        <v>1.310603618621826</v>
       </c>
       <c r="B1">
-        <v>1.58621854114483</v>
+        <v>2.314539194107056</v>
       </c>
       <c r="C1">
-        <v>1.685376016247649</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.347138870271109</v>
+        <v>1.766597390174866</v>
       </c>
       <c r="E1">
-        <v>1.745958250207535</v>
+        <v>1.011873126029968</v>
       </c>
     </row>
   </sheetData>
